--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>bjhr</t>
   </si>
@@ -38,6 +38,27 @@
   </si>
   <si>
     <t>fjguhue</t>
+  </si>
+  <si>
+    <t>bbyhfuttgut</t>
+  </si>
+  <si>
+    <t>gt6tt</t>
+  </si>
+  <si>
+    <t>huhuih</t>
+  </si>
+  <si>
+    <t>gugt'</t>
+  </si>
+  <si>
+    <t>ugyt</t>
+  </si>
+  <si>
+    <t>gutgtgutu</t>
+  </si>
+  <si>
+    <t>huh7y7y7y7yyhoouvhvvh</t>
   </si>
 </sst>
 </file>
@@ -379,25 +400,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -405,24 +426,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
